--- a/Desafios/SENAI_HROADS_MANHA/SENAI_HROADS_MANHA-Fisico.xlsx
+++ b/Desafios/SENAI_HROADS_MANHA/SENAI_HROADS_MANHA-Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\Senai\Sprint1_bd\sprint-1-bd\exercicios\SENAI_HROADS_MANHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8354BDC-2384-4A3B-84D1-C974601E0B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A444EE3A-E373-4192-85D0-DAF555C06924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B26915F4-1B31-4A1F-BF00-F940F2C234F8}"/>
   </bookViews>
@@ -270,32 +270,32 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F96A4A-CBB7-42FB-A275-66327318D3D5}">
-  <dimension ref="D2:K32"/>
+  <dimension ref="D2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,327 +628,317 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>80</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>44256</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>43483</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>70</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>100</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>44256</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>43176</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>75</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>60</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>44256</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>43177</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="I9" s="9" t="s">
+      <c r="E9" s="14"/>
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="11">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="11">
+      <c r="I11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="11">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="J12" s="11">
+      <c r="I12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="11">
+      <c r="H13" s="8">
         <v>4</v>
       </c>
-      <c r="J13" s="11">
+      <c r="I13" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="11">
+      <c r="H14" s="8">
         <v>4</v>
       </c>
-      <c r="J14" s="11">
+      <c r="I14" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="11">
+      <c r="H15" s="8">
         <v>7</v>
       </c>
-      <c r="J15" s="11"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>6</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="H21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>1</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>2</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="H23" s="12">
+        <v>2</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>3</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="H24" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="17">
-        <v>1</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="17">
-        <v>2</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="17">
-        <v>3</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="I24" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="17">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="12">
         <v>4</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="I25" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -956,9 +946,9 @@
   <mergeCells count="5">
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
